--- a/src/main/resources/cardiac_diseases/test.drl.xlsx
+++ b/src/main/resources/cardiac_diseases/test.drl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\cardiac_diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C6A74-1358-40EB-A3C0-3086A7E246A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7162B43C-3C02-4A23-A708-5D4FF0B38FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="0" windowWidth="11820" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>RuleSet</t>
   </si>
@@ -33,86 +33,68 @@
     <t>Import</t>
   </si>
   <si>
-    <t xml:space="preserve">cardiac_diseases.Patient, cardiac_diseases.Disease, cardiac_diseases.Symptom </t>
-  </si>
-  <si>
-    <t>RuleTable Diagnosis</t>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>cardiac_diseases</t>
+  </si>
+  <si>
+    <t>RuleTable testPatient</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>PatientUnit</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>cardiac_diseases.Patient, cardiac_diseases.Symptom, cardiac_diseases.Disease</t>
+  </si>
+  <si>
+    <t>symptom</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>$patient:Patient</t>
+  </si>
+  <si>
+    <t>System.out.println("hello"+$param);</t>
+  </si>
+  <si>
+    <t>"whatever"</t>
+  </si>
+  <si>
+    <t>Case</t>
   </si>
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>CONDITION</t>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>$patient: Patient</t>
-  </si>
-  <si>
-    <t>getSymptoms().contains(Symptom.$param)</t>
-  </si>
-  <si>
-    <t>$patient.setDisease(Disease.$param)</t>
-  </si>
-  <si>
-    <t>Chest pain</t>
-  </si>
-  <si>
-    <t>Scapula pain</t>
-  </si>
-  <si>
-    <t>Lower back pain</t>
-  </si>
-  <si>
-    <t>Abdominal pain</t>
-  </si>
-  <si>
-    <t>Hoarseness</t>
-  </si>
-  <si>
-    <t>Bradychardia</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Ascending aortic aneurysm</t>
-  </si>
-  <si>
-    <t>CHEST_PAIN</t>
-  </si>
-  <si>
-    <t>BRADYCHARDIA</t>
-  </si>
-  <si>
-    <t>ASCENDING_AORTIC_ANEURYSM</t>
-  </si>
-  <si>
-    <t>Descending aortic aneurysm</t>
-  </si>
-  <si>
-    <t>SCAPULA_PAIN</t>
-  </si>
-  <si>
-    <t>HOARSENES</t>
-  </si>
-  <si>
-    <t>DESCENDING_AORTIC_ANEURYSM</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TEST</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>$patient.setAge($param);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,29 +103,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,11 +133,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor indexed="8"/>
+        <bgColor indexed="58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,28 +152,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{29651E9E-71DA-4F2B-96BD-CABC56FA6211}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{B1A3DB6C-8A63-46F3-8065-AAAC9C9AEDD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,181 +479,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:5" ht="16.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.2">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2">
+      <c r="C12" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2">
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2">
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:G7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/cardiac_diseases/test.drl.xlsx
+++ b/src/main/resources/cardiac_diseases/test.drl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\cardiac_diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7162B43C-3C02-4A23-A708-5D4FF0B38FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019589B-76A7-4491-AC5E-3B875E9DFA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="11820" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>RuleSet</t>
   </si>
@@ -54,12 +54,6 @@
     <t>test1</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>cardiac_diseases.Patient, cardiac_diseases.Symptom, cardiac_diseases.Disease</t>
   </si>
   <si>
@@ -72,22 +66,25 @@
     <t>$patient:Patient</t>
   </si>
   <si>
+    <t>"whatever"</t>
+  </si>
+  <si>
+    <t>$patient.setAge($param2);</t>
+  </si>
+  <si>
     <t>System.out.println("hello"+$param);</t>
   </si>
   <si>
-    <t>"whatever"</t>
-  </si>
-  <si>
-    <t>Case</t>
+    <t>age</t>
   </si>
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>$patient.setAge($param);</t>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -124,7 +121,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +140,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -167,6 +170,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -175,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -197,6 +237,15 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,22 +528,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16.2">
+    <row r="2" spans="2:5" ht="16.2">
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -504,17 +553,17 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="16.2">
+    <row r="3" spans="2:5" ht="16.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2">
+    <row r="4" spans="2:5" ht="16.2">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -524,26 +573,23 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="2:5">
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2">
+    <row r="6" spans="2:5" ht="16.2">
       <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.2">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.2">
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -555,82 +601,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2">
+    <row r="8" spans="2:5" ht="16.2">
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="16.2">
+    <row r="9" spans="2:5" ht="16.2">
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.2">
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.2">
+      <c r="E10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.2">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.2">
+    <row r="12" spans="2:5" ht="16.2">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="2">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16.2">
+    <row r="13" spans="2:5" ht="16.2">
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="2">
         <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.2">
+    <row r="14" spans="2:5" ht="16.2">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C14" s="2">
         <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>

--- a/src/main/resources/cardiac_diseases/test.drl.xlsx
+++ b/src/main/resources/cardiac_diseases/test.drl.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\cardiac_diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019589B-76A7-4491-AC5E-3B875E9DFA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4EAB62-3FA2-4EF8-983B-D289F842FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>RuleSet</t>
   </si>
@@ -45,53 +56,72 @@
     <t>RuleTable testPatient</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>cardiac_diseases.Patient, cardiac_diseases.Symptom, cardiac_diseases.Disease</t>
+  </si>
+  <si>
+    <t>symptom</t>
+  </si>
+  <si>
+    <t>$patient:Patient</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
     <t>PatientUnit</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>cardiac_diseases.Patient, cardiac_diseases.Symptom, cardiac_diseases.Disease</t>
-  </si>
-  <si>
-    <t>symptom</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>$patient:Patient</t>
-  </si>
-  <si>
-    <t>"whatever"</t>
-  </si>
-  <si>
-    <t>$patient.setAge($param2);</t>
-  </si>
-  <si>
-    <t>System.out.println("hello"+$param);</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
+    <t>EscapeQuotes</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>age == 20</t>
+  </si>
+  <si>
+    <t>$param</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">modify($patient){
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="30"/>
+        <rFont val="メイリオ"/>
+      </rPr>
+      <t xml:space="preserve"> setAge($1),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="30"/>
+        <rFont val="メイリオ"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> setName($2);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>30, "other"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +150,21 @@
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="30"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="30"/>
+      <name val="メイリオ"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -147,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -207,6 +252,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -215,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -246,6 +330,21 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,166 +627,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D7" sqref="D7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="16.2">
-      <c r="B2" s="3"/>
+    <row r="1" spans="1:4" ht="16.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.2">
-      <c r="B3" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="16.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" ht="16.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="16.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.2">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.2">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="64.8">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="2:5" ht="16.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.2">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.2">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.2">
-      <c r="B13" s="1" t="s">
+      <c r="C11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.2">
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/cardiac_diseases/test.drl.xlsx
+++ b/src/main/resources/cardiac_diseases/test.drl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\Cardiac_diseases\src\main\resources\cardiac_diseases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4EAB62-3FA2-4EF8-983B-D289F842FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231EC6D4-E068-4133-BC62-12A4C24D3A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>symptom</t>
   </si>
   <si>
-    <t>$patient:Patient</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>$param</t>
+  </si>
+  <si>
+    <t>30, "other"</t>
   </si>
   <si>
     <r>
@@ -114,7 +114,7 @@
     </r>
   </si>
   <si>
-    <t>30, "other"</t>
+    <t>$patient: Patient</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -665,20 +665,20 @@
     <row r="3" spans="1:4" ht="16.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="16.2">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -698,7 +698,7 @@
     </row>
     <row r="7" spans="1:4" ht="16.2">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -711,7 +711,7 @@
     <row r="8" spans="1:4" ht="16.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -719,7 +719,7 @@
     <row r="9" spans="1:4" ht="64.8">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>17</v>
@@ -741,10 +741,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2"/>
     </row>
